--- a/Resources/data-template(English).xlsx
+++ b/Resources/data-template(English).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CompanyProjects\mixer-control-globalver\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437EEC3B-C712-460A-9441-A7F4D6FC1962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60C369C-FD8F-40C3-9D29-C28F199D936A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F16F4896-5A00-4506-B4C6-D29130D26770}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>STT
 No.</t>
@@ -55,259 +55,6 @@
   <si>
     <t>Dung sai (kg)
 Tolerance (kg)</t>
-  </si>
-  <si>
-    <t>Đơn vị thực tế
-Actual unit</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*LƯU Ý:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Đơn vị thực thế:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KG :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Khi nguyên vật liệu cần phải đo trọng lượng.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Packed :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Nguyên vật liệu tính bằng số gói </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(không đo trọng lượng).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Các cột có màu vàng là các giá trị </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BẮT BUỘC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, các giá trị còn lại có thể bỏ trống.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*NOTE :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Actual unit:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-KG : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When raw materials need to measure weight.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Packed : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Materials are in packages </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(not measured by weight)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.
-- Columns in yellow are REQUIRED values, the remaining values ​​can be blank.</t>
-    </r>
   </si>
   <si>
     <t>Thứ tự bước
@@ -438,6 +185,98 @@
       </rPr>
       <t>：Turn on vaccum.
 - Columns in yellow are REQUIRED values, the value if not setting please fill with 0.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*LƯU Ý:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Các cột có màu vàng là các giá trị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BẮT BUỘC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, các giá trị còn lại có thể bỏ trống.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*NOTE :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Columns in yellow are REQUIRED values, the remaining values ​​can be blank.</t>
     </r>
   </si>
 </sst>
@@ -957,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F945A8-7C13-4EDA-B471-5349D355352A}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F1" sqref="F1:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -970,14 +809,13 @@
     <col min="3" max="3" width="19.5546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
-    <col min="8" max="10" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="48.5546875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="9.33203125" style="5" customWidth="1"/>
+    <col min="7" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="48.5546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="44.25" customHeight="1">
+    <row r="1" spans="1:10" ht="44.25" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -993,205 +831,188 @@
       <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>6</v>
-      </c>
+      <c r="F1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="27"/>
       <c r="H1" s="27"/>
       <c r="I1" s="27"/>
       <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-    </row>
-    <row r="2" spans="1:11" ht="19.95" customHeight="1">
+    </row>
+    <row r="2" spans="1:10" ht="19.95" customHeight="1">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
       <c r="D2" s="21"/>
       <c r="E2" s="20"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-    </row>
-    <row r="3" spans="1:11" ht="19.95" customHeight="1">
+    </row>
+    <row r="3" spans="1:10" ht="19.95" customHeight="1">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="19"/>
       <c r="D3" s="21"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-    </row>
-    <row r="4" spans="1:11" ht="19.95" customHeight="1">
+    </row>
+    <row r="4" spans="1:10" ht="19.95" customHeight="1">
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>
       <c r="D4" s="21"/>
       <c r="E4" s="20"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-    </row>
-    <row r="5" spans="1:11" ht="19.95" customHeight="1">
+    </row>
+    <row r="5" spans="1:10" ht="19.95" customHeight="1">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="19"/>
       <c r="D5" s="21"/>
       <c r="E5" s="20"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-    </row>
-    <row r="6" spans="1:11" ht="19.95" customHeight="1">
+    </row>
+    <row r="6" spans="1:10" ht="19.95" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
       <c r="D6" s="21"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-    </row>
-    <row r="7" spans="1:11" ht="19.95" customHeight="1">
+    </row>
+    <row r="7" spans="1:10" ht="19.95" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="21"/>
       <c r="E7" s="20"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-    </row>
-    <row r="8" spans="1:11" ht="19.95" customHeight="1">
+    </row>
+    <row r="8" spans="1:10" ht="19.95" customHeight="1">
       <c r="A8" s="17"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
       <c r="D8" s="21"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
       <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-    </row>
-    <row r="9" spans="1:11" ht="19.95" customHeight="1">
+    </row>
+    <row r="9" spans="1:10" ht="19.95" customHeight="1">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="19"/>
       <c r="D9" s="21"/>
       <c r="E9" s="20"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-    </row>
-    <row r="10" spans="1:11" ht="19.95" customHeight="1">
+    </row>
+    <row r="10" spans="1:10" ht="19.95" customHeight="1">
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
       <c r="D10" s="21"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-    </row>
-    <row r="11" spans="1:11" ht="19.95" customHeight="1">
+    </row>
+    <row r="11" spans="1:10" ht="19.95" customHeight="1">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="21"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-    </row>
-    <row r="12" spans="1:11" ht="19.95" customHeight="1">
+    </row>
+    <row r="12" spans="1:10" ht="19.95" customHeight="1">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
       <c r="D12" s="21"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-    </row>
-    <row r="13" spans="1:11" ht="19.95" customHeight="1">
+    </row>
+    <row r="13" spans="1:10" ht="19.95" customHeight="1">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="21"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-    </row>
-    <row r="14" spans="1:11" ht="19.95" customHeight="1">
+    </row>
+    <row r="14" spans="1:10" ht="19.95" customHeight="1">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="21"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-    </row>
-    <row r="15" spans="1:11" ht="19.95" customHeight="1">
+    </row>
+    <row r="15" spans="1:10" ht="19.95" customHeight="1">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
       <c r="D15" s="21"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G1:K15"/>
+    <mergeCell ref="F1:J15"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576 G16:G1048576" xr:uid="{5448CEC1-C1FA-4C22-A2C6-E9BC80840D45}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F16:F1048576" xr:uid="{5448CEC1-C1FA-4C22-A2C6-E9BC80840D45}">
       <formula1>"KG,Packed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1225,31 +1046,31 @@
   <sheetData>
     <row r="1" spans="1:12" ht="74.400000000000006" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="H1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="I1" s="28" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>15</v>
       </c>
       <c r="J1" s="29"/>
       <c r="K1" s="29"/>

--- a/Resources/data-template(English).xlsx
+++ b/Resources/data-template(English).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CompanyProjects\mixer-control-globalver\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\TechlinkProjects\mixer-control-globalver\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60C369C-FD8F-40C3-9D29-C28F199D936A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF129C1-A875-4F4A-B859-D2FEDB010590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F16F4896-5A00-4506-B4C6-D29130D26770}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F16F4896-5A00-4506-B4C6-D29130D26770}"/>
   </bookViews>
   <sheets>
     <sheet name="material_info" sheetId="1" r:id="rId1"/>
@@ -35,27 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>STT
-No.</t>
-  </si>
-  <si>
-    <t>Mã nguyên vật liệu
-Material code</t>
-  </si>
-  <si>
-    <t>Số LOT
-LOT No.</t>
-  </si>
-  <si>
-    <t>Trọng lượng (kg)
-Weight (kg)</t>
-  </si>
-  <si>
-    <t>Dung sai (kg)
-Tolerance (kg)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
   <si>
     <t>Thứ tự bước
 Process No.</t>
@@ -279,6 +259,33 @@
 - Columns in yellow are REQUIRED values, the remaining values ​​can be blank.</t>
     </r>
   </si>
+  <si>
+    <t>STT (*)
+No. (*)</t>
+  </si>
+  <si>
+    <t>Mã nguyên vật liệu (*)
+Material code (*)</t>
+  </si>
+  <si>
+    <t>Số LOT (*)
+LOT No. (*)</t>
+  </si>
+  <si>
+    <t>Trọng lượng (kg) (*)
+Weight (kg) (*)</t>
+  </si>
+  <si>
+    <t>Dung sai (kg) (*)
+Tolerance (kg) (*)</t>
+  </si>
+  <si>
+    <t>Bỏ qua thông báo kết thúc
+Skip finish annouce</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
 </sst>
 </file>
 
@@ -392,7 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -469,16 +476,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -796,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F945A8-7C13-4EDA-B471-5349D355352A}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:J15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -817,202 +827,335 @@
   <sheetData>
     <row r="1" spans="1:10" ht="44.25" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+    </row>
+    <row r="2" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A2" s="17">
+        <f>ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-    </row>
-    <row r="2" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
       <c r="D2" s="21"/>
       <c r="E2" s="20"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A3" s="17"/>
+      <c r="A3" s="17">
+        <f t="shared" ref="A3:A15" si="0">ROW(A2)</f>
+        <v>2</v>
+      </c>
       <c r="B3" s="18"/>
       <c r="C3" s="19"/>
       <c r="D3" s="21"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A4" s="17"/>
+      <c r="A4" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="21"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="20"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A5" s="17"/>
+      <c r="A5" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="B5" s="18"/>
       <c r="C5" s="19"/>
       <c r="D5" s="21"/>
       <c r="E5" s="20"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A6" s="17"/>
+      <c r="A6" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
       <c r="D6" s="21"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A7" s="17"/>
+      <c r="A7" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="21"/>
       <c r="E7" s="20"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A8" s="17"/>
+      <c r="A8" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
       <c r="D8" s="21"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A9" s="17"/>
+      <c r="A9" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="B9" s="18"/>
       <c r="C9" s="19"/>
       <c r="D9" s="21"/>
       <c r="E9" s="20"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A10" s="17"/>
+      <c r="A10" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
       <c r="D10" s="21"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A11" s="17"/>
+      <c r="A11" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="21"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
     </row>
     <row r="12" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A12" s="17"/>
+      <c r="A12" s="17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
       <c r="D12" s="21"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A13" s="17"/>
+      <c r="A13" s="17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="21"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A14" s="17"/>
+      <c r="A14" s="17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="21"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A15" s="17"/>
+      <c r="A15" s="17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
       <c r="D15" s="21"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+    </row>
+    <row r="16" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A16" s="17">
+        <f t="shared" ref="A16:A21" si="1">ROW(A15)</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A17" s="17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A18" s="17">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A19" s="17">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A20" s="17">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A21" s="17">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" insertRows="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
-    <mergeCell ref="F1:J15"/>
+    <mergeCell ref="F1:J21"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F16:F1048576" xr:uid="{5448CEC1-C1FA-4C22-A2C6-E9BC80840D45}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:F1048576" xr:uid="{5448CEC1-C1FA-4C22-A2C6-E9BC80840D45}">
       <formula1>"KG,Packed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1023,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430D81F9-0EEE-4FA0-8D73-C140CFE53E01}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1038,246 +1181,495 @@
     <col min="5" max="5" width="24.44140625" style="9" customWidth="1"/>
     <col min="6" max="6" width="15.77734375" style="9" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="35.77734375" style="11" customWidth="1"/>
-    <col min="9" max="11" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="23.109375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="33" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" style="1"/>
     <col min="12" max="12" width="42" style="1" customWidth="1"/>
     <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="74.400000000000006" customHeight="1">
+    <row r="1" spans="1:13" ht="74.400000000000006" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="H1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="J1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-    </row>
-    <row r="2" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A2" s="22"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A2" s="22">
+        <f>ROW(A1)</f>
+        <v>1</v>
+      </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="22"/>
+      <c r="F2" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G2" s="22"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="28"/>
+      <c r="H2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="24"/>
       <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-    </row>
-    <row r="3" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A3" s="22"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A3" s="22">
+        <f t="shared" ref="A3:A15" si="0">ROW(A2)</f>
+        <v>2</v>
+      </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
-      <c r="F3" s="22"/>
+      <c r="F3" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G3" s="22"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="28"/>
+      <c r="H3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="24"/>
       <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-    </row>
-    <row r="4" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A4" s="22"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+    </row>
+    <row r="4" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A4" s="22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
-      <c r="F4" s="22"/>
+      <c r="F4" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G4" s="22"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="28"/>
+      <c r="H4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="24"/>
       <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-    </row>
-    <row r="5" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A5" s="22"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+    </row>
+    <row r="5" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A5" s="22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="22"/>
+      <c r="F5" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G5" s="22"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="28"/>
+      <c r="H5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="24"/>
       <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-    </row>
-    <row r="6" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A6" s="22"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A6" s="22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
-      <c r="F6" s="22"/>
+      <c r="F6" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G6" s="22"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="28"/>
+      <c r="H6" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="24"/>
       <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-    </row>
-    <row r="7" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A7" s="22"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+    </row>
+    <row r="7" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A7" s="22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
-      <c r="F7" s="22"/>
+      <c r="F7" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G7" s="22"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="28"/>
+      <c r="H7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="24"/>
       <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-    </row>
-    <row r="8" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A8" s="22"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+    </row>
+    <row r="8" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A8" s="22">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="22"/>
+      <c r="F8" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G8" s="22"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="28"/>
+      <c r="H8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="24"/>
       <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-    </row>
-    <row r="9" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A9" s="22"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+    </row>
+    <row r="9" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A9" s="22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
-      <c r="F9" s="22"/>
+      <c r="F9" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G9" s="22"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="28"/>
+      <c r="H9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="24"/>
       <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-    </row>
-    <row r="10" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A10" s="22"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+    </row>
+    <row r="10" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A10" s="22">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
-      <c r="F10" s="22"/>
+      <c r="F10" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G10" s="22"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="28"/>
+      <c r="H10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="24"/>
       <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-    </row>
-    <row r="11" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A11" s="22"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+    </row>
+    <row r="11" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A11" s="22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
-      <c r="F11" s="22"/>
+      <c r="F11" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G11" s="22"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="28"/>
+      <c r="H11" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="24"/>
       <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-    </row>
-    <row r="12" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A12" s="22"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+    </row>
+    <row r="12" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A12" s="22">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G12" s="22"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="28"/>
+      <c r="H12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="24"/>
       <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-    </row>
-    <row r="13" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A13" s="22"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+    </row>
+    <row r="13" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A13" s="22">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G13" s="22"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="28"/>
+      <c r="H13" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="25"/>
       <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-    </row>
-    <row r="14" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A14" s="22"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+    </row>
+    <row r="14" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A14" s="22">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
-      <c r="F14" s="22"/>
+      <c r="F14" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G14" s="22"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="28"/>
+      <c r="H14" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="25"/>
       <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-    </row>
-    <row r="15" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A15" s="22"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+    </row>
+    <row r="15" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A15" s="22">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="22"/>
+      <c r="F15" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G15" s="22"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="28"/>
+      <c r="H15" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="25"/>
       <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+    </row>
+    <row r="16" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A16" s="22">
+        <f t="shared" ref="A16:A21" si="1">ROW(A15)</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+    </row>
+    <row r="17" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A17" s="22">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+    </row>
+    <row r="18" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A18" s="22">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+    </row>
+    <row r="19" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A19" s="22">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="25"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+    </row>
+    <row r="20" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A20" s="22">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="25"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+    </row>
+    <row r="21" spans="1:13" ht="19.95" customHeight="1">
+      <c r="A21" s="22">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="25"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" insertRows="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
-    <mergeCell ref="I1:L15"/>
+    <mergeCell ref="J1:M21"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{71B65B3D-3C5B-47CA-A9B2-AC239C73A7F4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H21 F2:F1048576" xr:uid="{71B65B3D-3C5B-47CA-A9B2-AC239C73A7F4}">
       <formula1>"No,Yes"</formula1>
     </dataValidation>
   </dataValidations>
